--- a/vix_spread_daily_log.xlsx
+++ b/vix_spread_daily_log.xlsx
@@ -1041,44 +1041,44 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-01-17 04:07:08</t>
+          <t>2026-01-17 05:22:59</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="D13" t="n">
-        <v>23218</v>
+        <v>23545</v>
       </c>
       <c r="E13" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="F13" t="n">
-        <v>4470</v>
+        <v>4714</v>
       </c>
       <c r="G13" t="n">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="H13" t="n">
-        <v>27688</v>
+        <v>28259</v>
       </c>
       <c r="I13" t="n">
-        <v>2.31</v>
+        <v>2.4</v>
       </c>
       <c r="J13" t="n">
-        <v>1520</v>
+        <v>1597</v>
       </c>
       <c r="K13" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="L13" t="n">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="M13" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="N13" t="n">
-        <v>2053</v>
+        <v>2165</v>
       </c>
     </row>
   </sheetData>

--- a/vix_spread_daily_log.xlsx
+++ b/vix_spread_daily_log.xlsx
@@ -1041,14 +1041,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-01-17 05:22:59</t>
+          <t>2026-01-17 05:36:21</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>1.55</v>
       </c>
       <c r="D13" t="n">
-        <v>23545</v>
+        <v>27346</v>
       </c>
       <c r="E13" t="n">
         <v>0.67</v>
@@ -1060,13 +1060,13 @@
         <v>0.88</v>
       </c>
       <c r="H13" t="n">
-        <v>28259</v>
+        <v>32060</v>
       </c>
       <c r="I13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J13" t="n">
-        <v>1597</v>
+        <v>1600</v>
       </c>
       <c r="K13" t="n">
         <v>1.12</v>
@@ -1075,10 +1075,10 @@
         <v>568</v>
       </c>
       <c r="M13" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="N13" t="n">
-        <v>2165</v>
+        <v>2168</v>
       </c>
     </row>
   </sheetData>

--- a/vix_spread_daily_log.xlsx
+++ b/vix_spread_daily_log.xlsx
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-01-17 05:36:21</t>
+          <t>2026-01-17 05:45:19</t>
         </is>
       </c>
       <c r="C13" t="n">

--- a/vix_spread_daily_log.xlsx
+++ b/vix_spread_daily_log.xlsx
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-01-17 05:45:19</t>
+          <t>2026-01-17 08:34:33</t>
         </is>
       </c>
       <c r="C13" t="n">

--- a/vix_spread_daily_log.xlsx
+++ b/vix_spread_daily_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,6 +1081,54 @@
         <v>2168</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-01-20 00:59:45</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D14" t="n">
+        <v>115</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1102</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1217</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vix_spread_daily_log.xlsx
+++ b/vix_spread_daily_log.xlsx
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-01-20 00:59:45</t>
+          <t>2026-01-20 01:55:15</t>
         </is>
       </c>
       <c r="C14" t="n">

--- a/vix_spread_daily_log.xlsx
+++ b/vix_spread_daily_log.xlsx
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-01-20 01:55:15</t>
+          <t>2026-01-20 05:33:13</t>
         </is>
       </c>
       <c r="C14" t="n">

--- a/vix_spread_daily_log.xlsx
+++ b/vix_spread_daily_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1129,6 +1129,54 @@
         <v>3</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-01-21 00:00:14</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="D15" t="n">
+        <v>25799</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6676</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H15" t="n">
+        <v>32475</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J15" t="n">
+        <v>15836</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>530</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="N15" t="n">
+        <v>16366</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vix_spread_daily_log.xlsx
+++ b/vix_spread_daily_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1177,6 +1177,54 @@
         <v>16366</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-22 21:30:41</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F16" t="n">
+        <v>21</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.7500000000000001</v>
+      </c>
+      <c r="H16" t="n">
+        <v>25</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>129</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1658</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1787</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vix_spread_daily_log.xlsx
+++ b/vix_spread_daily_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1225,6 +1225,294 @@
         <v>1787</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-01-23 00:00:56</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1641</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1418</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3059</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="J17" t="n">
+        <v>925</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1117</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-01-24 00:00:36</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6048</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3219</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9267</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J18" t="n">
+        <v>164</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>220</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N18" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-01-25 00:00:51</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D19" t="n">
+        <v>20858</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>15556</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.8099999999999999</v>
+      </c>
+      <c r="H19" t="n">
+        <v>36414</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8356</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1662</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10018</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-01-26 20:46:05</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>85</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>15556</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15641</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8356</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1662</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10018</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-01-27 00:00:37</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1144</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2026</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1689</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L21" t="n">
+        <v>276</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-01-28 00:00:17</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="D22" t="n">
+        <v>684</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F22" t="n">
+        <v>115</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H22" t="n">
+        <v>799</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J22" t="n">
+        <v>435</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="L22" t="n">
+        <v>95</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N22" t="n">
+        <v>530</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
